--- a/NUNZ.xlsx
+++ b/NUNZ.xlsx
@@ -74,7 +74,7 @@
     <t>Equity income in investee</t>
   </si>
   <si>
-    <t>Extraordinary Gain</t>
+    <t>Miscellaneous</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -839,7 +839,7 @@
         <v>33635</v>
       </c>
       <c r="C6" s="3">
-        <v>16327</v>
+        <v>39327</v>
       </c>
       <c r="D6" s="3">
         <v>37760908</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="3">
-        <v>-9000000</v>
+        <v>-100977000</v>
       </c>
       <c r="D13" s="3">
         <v>-1862</v>
@@ -1477,9 +1477,15 @@
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1651,7 +1657,7 @@
         <v>29835</v>
       </c>
       <c r="C26" s="3">
-        <v>9013829</v>
+        <v>100981535</v>
       </c>
       <c r="D26" s="3">
         <v>-24006</v>
@@ -2427,7 +2433,7 @@
         <v>22575</v>
       </c>
       <c r="C40" s="3">
-        <v>36404</v>
+        <v>59404</v>
       </c>
       <c r="D40" s="3">
         <v>99305</v>
